--- a/biology/Zoologie/Acomys_minous/Acomys_minous.xlsx
+++ b/biology/Zoologie/Acomys_minous/Acomys_minous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rat épineux de Crète, Souris épineuse de Crète
-Le Rat épineux de Crète ou Souris épineuse de Crète[1] (Acomys minous) est une espèce de rongeurs de la famille des Muridés.
+Le Rat épineux de Crète ou Souris épineuse de Crète (Acomys minous) est une espèce de rongeurs de la famille des Muridés.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Rat épineux de Crète mesure entre 9 et 13 centimètres de long, auxquels on peut ajouter entre 9 et 12 cm de queue, et son poids varie de 30 à 86 grammes[2]. Comme les autres souris épineuses, il n'a pas de véritables épines mais des poils durs et raides similaires aux épines d'un hérisson.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Rat épineux de Crète mesure entre 9 et 13 centimètres de long, auxquels on peut ajouter entre 9 et 12 cm de queue, et son poids varie de 30 à 86 grammes. Comme les autres souris épineuses, il n'a pas de véritables épines mais des poils durs et raides similaires aux épines d'un hérisson.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De naturel crépusculaire et nocturne, le Rat épineux de Crète se nourrit majoritairement de plantes et de graines, régime supplémenté par quelques arthropodes. Il vit en petits groupes sous l'égide d'une femelle adulte. Les portées comptent entre un et quatre souriceaux, qui naissent poilus et dont les yeux s'ouvrent après deux jours[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De naturel crépusculaire et nocturne, le Rat épineux de Crète se nourrit majoritairement de plantes et de graines, régime supplémenté par quelques arthropodes. Il vit en petits groupes sous l'égide d'une femelle adulte. Les portées comptent entre un et quatre souriceaux, qui naissent poilus et dont les yeux s'ouvrent après deux jours. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme son nom l'indique, cette espèce est endémique de l'île de Crète en Grèce. Elle fréquente les fruticées et zones rocailleuses arides de l'île[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme son nom l'indique, cette espèce est endémique de l'île de Crète en Grèce. Elle fréquente les fruticées et zones rocailleuses arides de l'île.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La validité de ce taxon est débattue, et le Rat épineux de Crète est parfois considéré comme étant une population de Rat épineux du Caire, potentiellement introduite en Crète par l'action humaine, une théorie qui concorde avec l'absence de fossiles d'Acomys sur l'île. Cependant, il reste des divergences morphologiques et génétiques avec ses cousins d'Afrique continentale[4],[5]. Du fait de ce débat, l'UICN considère le Rat épineux de Crète comme une espèce à données insuffisantes.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La validité de ce taxon est débattue, et le Rat épineux de Crète est parfois considéré comme étant une population de Rat épineux du Caire, potentiellement introduite en Crète par l'action humaine, une théorie qui concorde avec l'absence de fossiles d'Acomys sur l'île. Cependant, il reste des divergences morphologiques et génétiques avec ses cousins d'Afrique continentale,. Du fait de ce débat, l'UICN considère le Rat épineux de Crète comme une espèce à données insuffisantes.
 </t>
         </is>
       </c>
